--- a/sampleBook/Book1.xlsx
+++ b/sampleBook/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sh-kobayashi\Desktop\excel読み込みマン\sampleBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B60DE33-DA15-4267-B19D-7936E4BD9BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F54082-8E5D-46F9-B193-60BF91C674C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{04C2B92F-A641-4319-BBDC-608A9E476C80}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -434,8 +434,9 @@
       <c r="C2" s="1">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" s="1">
+        <f>C2-B2</f>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -448,8 +449,9 @@
       <c r="C3" s="1">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D5" si="0">C3-B3</f>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -462,8 +464,9 @@
       <c r="C4" s="1">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -476,8 +479,9 @@
       <c r="C5" s="1">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
